--- a/Excel/ErpScheduler.xlsx
+++ b/Excel/ErpScheduler.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,23 +44,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>210603 화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>210602 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능 팝업 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DB table 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210603 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목단가조정 DAO,VO,Controller 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210602 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210601 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specific</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +96,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,13 +127,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,8 +164,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,23 +483,27 @@
     <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="60.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>0.375</v>
@@ -495,7 +550,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>0.375</v>
@@ -504,7 +559,7 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,7 +570,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,6 +581,20 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/ErpScheduler.xlsx
+++ b/Excel/ErpScheduler.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>Specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200604 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,6 +606,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ErpScheduler.xlsx
+++ b/Excel/ErpScheduler.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,7 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200604 금</t>
+    <t>시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210604 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210607 월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +616,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>0.375</v>
@@ -617,7 +625,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
